--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1855.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1855.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2238784467511261</v>
+        <v>1.374703407287598</v>
       </c>
       <c r="B1">
-        <v>0.2850699792133254</v>
+        <v>2.714120864868164</v>
       </c>
       <c r="C1">
-        <v>0.4220276423023974</v>
+        <v>3.353031635284424</v>
       </c>
       <c r="D1">
-        <v>1.390506579003607</v>
+        <v>3.349186420440674</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>1.929690361022949</v>
       </c>
     </row>
   </sheetData>
